--- a/Desafio TDP - Testes - CheckList.xlsx
+++ b/Desafio TDP - Testes - CheckList.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\andre\WorkSpaces\Trílogo\C#\Aula08\MinhaAula08\Treinando\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B4211371-5AB9-4B81-80C9-C4AB01E26AED}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E91266E8-C3A4-4E26-9569-EAAA7AB41195}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{312F50C6-5A91-4843-8590-691354348789}"/>
   </bookViews>
@@ -819,6 +819,9 @@
     <xf numFmtId="0" fontId="0" fillId="7" borderId="16" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="10" borderId="7" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -826,9 +829,6 @@
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="10" borderId="7" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
   </cellXfs>
@@ -1147,8 +1147,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D79552B9-EA35-4F88-908F-0BAC9E0B1E69}">
   <dimension ref="A1:H50"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D38" sqref="D38"/>
+    <sheetView tabSelected="1" topLeftCell="A31" workbookViewId="0">
+      <selection activeCell="G50" sqref="G50"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -1165,15 +1165,15 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:7" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A1" s="43" t="s">
+      <c r="A1" s="44" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="44"/>
-      <c r="C1" s="44"/>
-      <c r="D1" s="44"/>
-      <c r="E1" s="44"/>
-      <c r="F1" s="44"/>
-      <c r="G1" s="45"/>
+      <c r="B1" s="45"/>
+      <c r="C1" s="45"/>
+      <c r="D1" s="45"/>
+      <c r="E1" s="45"/>
+      <c r="F1" s="45"/>
+      <c r="G1" s="46"/>
     </row>
     <row r="2" spans="1:7" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A2" s="2" t="s">
@@ -1199,7 +1199,7 @@
       </c>
     </row>
     <row r="3" spans="1:7" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A3" s="46">
+      <c r="A3" s="43">
         <v>1</v>
       </c>
       <c r="B3" s="5" t="s">
@@ -1222,7 +1222,7 @@
       </c>
     </row>
     <row r="4" spans="1:7" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A4" s="46">
+      <c r="A4" s="43">
         <v>2</v>
       </c>
       <c r="B4" s="5" t="s">
@@ -1245,7 +1245,7 @@
       </c>
     </row>
     <row r="5" spans="1:7" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A5" s="46">
+      <c r="A5" s="43">
         <v>3</v>
       </c>
       <c r="B5" s="5" t="s">
@@ -1268,7 +1268,7 @@
       </c>
     </row>
     <row r="6" spans="1:7" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A6" s="46">
+      <c r="A6" s="43">
         <v>4</v>
       </c>
       <c r="B6" s="7" t="s">
@@ -1291,7 +1291,7 @@
       </c>
     </row>
     <row r="7" spans="1:7" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A7" s="46">
+      <c r="A7" s="43">
         <v>5</v>
       </c>
       <c r="B7" s="5" t="s">
@@ -1314,7 +1314,7 @@
       </c>
     </row>
     <row r="8" spans="1:7" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A8" s="46">
+      <c r="A8" s="43">
         <v>6</v>
       </c>
       <c r="B8" s="7" t="s">
@@ -1337,7 +1337,7 @@
       </c>
     </row>
     <row r="9" spans="1:7" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A9" s="46">
+      <c r="A9" s="43">
         <v>7</v>
       </c>
       <c r="B9" s="7" t="s">
@@ -1360,7 +1360,7 @@
       </c>
     </row>
     <row r="10" spans="1:7" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A10" s="46">
+      <c r="A10" s="43">
         <v>8</v>
       </c>
       <c r="B10" s="7" t="s">
@@ -1383,7 +1383,7 @@
       </c>
     </row>
     <row r="11" spans="1:7" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A11" s="46">
+      <c r="A11" s="43">
         <v>9</v>
       </c>
       <c r="B11" s="7" t="s">
@@ -1406,7 +1406,7 @@
       </c>
     </row>
     <row r="12" spans="1:7" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A12" s="46">
+      <c r="A12" s="43">
         <v>10</v>
       </c>
       <c r="B12" s="7" t="s">
@@ -1429,7 +1429,7 @@
       </c>
     </row>
     <row r="13" spans="1:7" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A13" s="46">
+      <c r="A13" s="43">
         <v>11</v>
       </c>
       <c r="B13" s="9" t="s">
@@ -1452,7 +1452,7 @@
       </c>
     </row>
     <row r="14" spans="1:7" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A14" s="46">
+      <c r="A14" s="43">
         <v>12</v>
       </c>
       <c r="B14" s="9" t="s">
@@ -1475,7 +1475,7 @@
       </c>
     </row>
     <row r="15" spans="1:7" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A15" s="46">
+      <c r="A15" s="43">
         <v>13</v>
       </c>
       <c r="B15" s="9" t="s">
@@ -1498,7 +1498,7 @@
       </c>
     </row>
     <row r="16" spans="1:7" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A16" s="46">
+      <c r="A16" s="43">
         <v>14</v>
       </c>
       <c r="B16" s="9" t="s">
@@ -1521,7 +1521,7 @@
       </c>
     </row>
     <row r="17" spans="1:7" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A17" s="46">
+      <c r="A17" s="43">
         <v>15</v>
       </c>
       <c r="B17" s="9" t="s">
@@ -1544,7 +1544,7 @@
       </c>
     </row>
     <row r="18" spans="1:7" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A18" s="46">
+      <c r="A18" s="43">
         <v>16</v>
       </c>
       <c r="B18" s="9" t="s">
@@ -1567,7 +1567,7 @@
       </c>
     </row>
     <row r="19" spans="1:7" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A19" s="46">
+      <c r="A19" s="43">
         <v>17</v>
       </c>
       <c r="B19" s="9" t="s">
@@ -1590,7 +1590,7 @@
       </c>
     </row>
     <row r="20" spans="1:7" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A20" s="46">
+      <c r="A20" s="43">
         <v>18</v>
       </c>
       <c r="B20" s="9" t="s">
@@ -1613,7 +1613,7 @@
       </c>
     </row>
     <row r="21" spans="1:7" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A21" s="46">
+      <c r="A21" s="43">
         <v>19</v>
       </c>
       <c r="B21" s="9" t="s">
@@ -1636,7 +1636,7 @@
       </c>
     </row>
     <row r="22" spans="1:7" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A22" s="46">
+      <c r="A22" s="43">
         <v>20</v>
       </c>
       <c r="B22" s="9" t="s">
@@ -1659,7 +1659,7 @@
       </c>
     </row>
     <row r="23" spans="1:7" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A23" s="46">
+      <c r="A23" s="43">
         <v>21</v>
       </c>
       <c r="B23" s="11" t="s">
@@ -1682,7 +1682,7 @@
       </c>
     </row>
     <row r="24" spans="1:7" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A24" s="46">
+      <c r="A24" s="43">
         <v>22</v>
       </c>
       <c r="B24" s="11" t="s">
@@ -1705,7 +1705,7 @@
       </c>
     </row>
     <row r="25" spans="1:7" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A25" s="46">
+      <c r="A25" s="43">
         <v>23</v>
       </c>
       <c r="B25" s="11" t="s">
@@ -1728,7 +1728,7 @@
       </c>
     </row>
     <row r="26" spans="1:7" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A26" s="46">
+      <c r="A26" s="43">
         <v>24</v>
       </c>
       <c r="B26" s="11" t="s">
@@ -1751,7 +1751,7 @@
       </c>
     </row>
     <row r="27" spans="1:7" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A27" s="46">
+      <c r="A27" s="43">
         <v>25</v>
       </c>
       <c r="B27" s="11" t="s">
@@ -1774,7 +1774,7 @@
       </c>
     </row>
     <row r="28" spans="1:7" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A28" s="46">
+      <c r="A28" s="43">
         <v>26</v>
       </c>
       <c r="B28" s="11" t="s">
@@ -1797,7 +1797,7 @@
       </c>
     </row>
     <row r="29" spans="1:7" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A29" s="46">
+      <c r="A29" s="43">
         <v>27</v>
       </c>
       <c r="B29" s="11" t="s">
@@ -1820,7 +1820,7 @@
       </c>
     </row>
     <row r="30" spans="1:7" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A30" s="46">
+      <c r="A30" s="43">
         <v>28</v>
       </c>
       <c r="B30" s="11" t="s">
@@ -1843,7 +1843,7 @@
       </c>
     </row>
     <row r="31" spans="1:7" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A31" s="46">
+      <c r="A31" s="43">
         <v>29</v>
       </c>
       <c r="B31" s="9" t="s">
@@ -1866,7 +1866,7 @@
       </c>
     </row>
     <row r="32" spans="1:7" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A32" s="46">
+      <c r="A32" s="43">
         <v>30</v>
       </c>
       <c r="B32" s="9" t="s">
@@ -1889,7 +1889,7 @@
       </c>
     </row>
     <row r="33" spans="1:7" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A33" s="46">
+      <c r="A33" s="43">
         <v>31</v>
       </c>
       <c r="B33" s="13" t="s">
@@ -1912,7 +1912,7 @@
       </c>
     </row>
     <row r="34" spans="1:7" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A34" s="46">
+      <c r="A34" s="43">
         <v>32</v>
       </c>
       <c r="B34" s="13" t="s">
@@ -1935,7 +1935,7 @@
       </c>
     </row>
     <row r="35" spans="1:7" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A35" s="46">
+      <c r="A35" s="43">
         <v>33</v>
       </c>
       <c r="B35" s="9" t="s">
@@ -1958,7 +1958,7 @@
       </c>
     </row>
     <row r="36" spans="1:7" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A36" s="46">
+      <c r="A36" s="43">
         <v>34</v>
       </c>
       <c r="B36" s="13" t="s">
@@ -1981,7 +1981,7 @@
       </c>
     </row>
     <row r="37" spans="1:7" ht="43.8" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A37" s="46">
+      <c r="A37" s="43">
         <v>35</v>
       </c>
       <c r="B37" s="39" t="s">
@@ -2004,7 +2004,7 @@
       </c>
     </row>
     <row r="38" spans="1:7" ht="43.8" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A38" s="46">
+      <c r="A38" s="43">
         <v>36</v>
       </c>
       <c r="B38" s="39" t="s">
@@ -2027,7 +2027,7 @@
       </c>
     </row>
     <row r="39" spans="1:7" ht="43.8" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A39" s="46">
+      <c r="A39" s="43">
         <v>37</v>
       </c>
       <c r="B39" s="13" t="s">
@@ -2050,7 +2050,7 @@
       </c>
     </row>
     <row r="40" spans="1:7" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A40" s="46">
+      <c r="A40" s="43">
         <v>38</v>
       </c>
       <c r="B40" s="13" t="s">
@@ -2073,7 +2073,7 @@
       </c>
     </row>
     <row r="41" spans="1:7" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A41" s="46">
+      <c r="A41" s="43">
         <v>39</v>
       </c>
       <c r="B41" s="13" t="s">
@@ -2096,7 +2096,7 @@
       </c>
     </row>
     <row r="42" spans="1:7" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A42" s="46">
+      <c r="A42" s="43">
         <v>40</v>
       </c>
       <c r="B42" s="13" t="s">
@@ -2119,7 +2119,7 @@
       </c>
     </row>
     <row r="43" spans="1:7" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A43" s="46">
+      <c r="A43" s="43">
         <v>41</v>
       </c>
       <c r="B43" s="13" t="s">
@@ -2142,7 +2142,7 @@
       </c>
     </row>
     <row r="44" spans="1:7" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A44" s="46">
+      <c r="A44" s="43">
         <v>42</v>
       </c>
       <c r="B44" s="13" t="s">
@@ -2165,7 +2165,7 @@
       </c>
     </row>
     <row r="45" spans="1:7" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A45" s="46">
+      <c r="A45" s="43">
         <v>43</v>
       </c>
       <c r="B45" s="13" t="s">
@@ -2188,7 +2188,7 @@
       </c>
     </row>
     <row r="46" spans="1:7" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A46" s="46">
+      <c r="A46" s="43">
         <v>44</v>
       </c>
       <c r="B46" s="13" t="s">
@@ -2211,7 +2211,7 @@
       </c>
     </row>
     <row r="47" spans="1:7" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A47" s="46">
+      <c r="A47" s="43">
         <v>45</v>
       </c>
       <c r="B47" s="13" t="s">
@@ -2234,7 +2234,7 @@
       </c>
     </row>
     <row r="48" spans="1:7" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A48" s="46">
+      <c r="A48" s="43">
         <v>46</v>
       </c>
       <c r="B48" s="9" t="s">
@@ -2257,7 +2257,7 @@
       </c>
     </row>
     <row r="49" spans="1:7" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A49" s="46">
+      <c r="A49" s="43">
         <v>47</v>
       </c>
       <c r="B49" s="15" t="s">
@@ -2272,7 +2272,7 @@
       <c r="G49" s="32"/>
     </row>
     <row r="50" spans="1:7" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A50" s="46">
+      <c r="A50" s="43">
         <v>48</v>
       </c>
       <c r="B50" s="17" t="s">

--- a/Desafio TDP - Testes - CheckList.xlsx
+++ b/Desafio TDP - Testes - CheckList.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="24701"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="24729"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\andre\WorkSpaces\Trílogo\C#\Aula08\MinhaAula08\Treinando\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E91266E8-C3A4-4E26-9569-EAAA7AB41195}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C023F4C1-856A-4553-B3DA-4F44A84CF067}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{312F50C6-5A91-4843-8590-691354348789}"/>
   </bookViews>
@@ -34,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="288" uniqueCount="119">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="295" uniqueCount="124">
   <si>
     <t>Use Case</t>
   </si>
@@ -330,9 +330,6 @@
     <t>put/orders/item/{qtd}</t>
   </si>
   <si>
-    <t>put/orders/order/{itemId}</t>
-  </si>
-  <si>
     <t>Cancelar Pedidos</t>
   </si>
   <si>
@@ -391,6 +388,24 @@
   </si>
   <si>
     <t>Autenticação</t>
+  </si>
+  <si>
+    <t>/authentication</t>
+  </si>
+  <si>
+    <t>Autenticar e Autorizar Usuário</t>
+  </si>
+  <si>
+    <t>/report</t>
+  </si>
+  <si>
+    <t>Gerar Relatórios</t>
+  </si>
+  <si>
+    <t>Parâmetros</t>
+  </si>
+  <si>
+    <t>put/orders/remove/{itemId}</t>
   </si>
 </sst>
 </file>
@@ -1148,7 +1163,7 @@
   <dimension ref="A1:H50"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A31" workbookViewId="0">
-      <selection activeCell="G50" sqref="G50"/>
+      <selection activeCell="E39" sqref="E39"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -2014,7 +2029,7 @@
         <v>8</v>
       </c>
       <c r="D38" s="40" t="s">
-        <v>98</v>
+        <v>123</v>
       </c>
       <c r="E38" s="41" t="s">
         <v>16</v>
@@ -2060,13 +2075,13 @@
         <v>8</v>
       </c>
       <c r="D40" s="24" t="s">
-        <v>117</v>
+        <v>116</v>
       </c>
       <c r="E40" s="14" t="s">
+        <v>114</v>
+      </c>
+      <c r="F40" s="42" t="s">
         <v>115</v>
-      </c>
-      <c r="F40" s="42" t="s">
-        <v>116</v>
       </c>
       <c r="G40" s="31" t="s">
         <v>7</v>
@@ -2083,13 +2098,13 @@
         <v>9</v>
       </c>
       <c r="D41" s="24" t="s">
+        <v>99</v>
+      </c>
+      <c r="E41" s="14" t="s">
+        <v>98</v>
+      </c>
+      <c r="F41" s="24" t="s">
         <v>100</v>
-      </c>
-      <c r="E41" s="14" t="s">
-        <v>99</v>
-      </c>
-      <c r="F41" s="24" t="s">
-        <v>101</v>
       </c>
       <c r="G41" s="31" t="s">
         <v>7</v>
@@ -2103,16 +2118,16 @@
         <v>14</v>
       </c>
       <c r="C42" s="13" t="s">
+        <v>101</v>
+      </c>
+      <c r="D42" s="24" t="s">
+        <v>103</v>
+      </c>
+      <c r="E42" s="14" t="s">
         <v>102</v>
       </c>
-      <c r="D42" s="24" t="s">
-        <v>104</v>
-      </c>
-      <c r="E42" s="14" t="s">
-        <v>103</v>
-      </c>
       <c r="F42" s="24" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="G42" s="31" t="s">
         <v>7</v>
@@ -2129,13 +2144,13 @@
         <v>11</v>
       </c>
       <c r="D43" s="24" t="s">
+        <v>104</v>
+      </c>
+      <c r="E43" s="14" t="s">
         <v>105</v>
       </c>
-      <c r="E43" s="14" t="s">
-        <v>106</v>
-      </c>
       <c r="F43" s="24" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="G43" s="31" t="s">
         <v>7</v>
@@ -2152,13 +2167,13 @@
         <v>11</v>
       </c>
       <c r="D44" s="24" t="s">
+        <v>106</v>
+      </c>
+      <c r="E44" s="14" t="s">
         <v>107</v>
       </c>
-      <c r="E44" s="14" t="s">
-        <v>108</v>
-      </c>
       <c r="F44" s="24" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="G44" s="31" t="s">
         <v>7</v>
@@ -2175,13 +2190,13 @@
         <v>11</v>
       </c>
       <c r="D45" s="24" t="s">
+        <v>108</v>
+      </c>
+      <c r="E45" s="14" t="s">
         <v>109</v>
       </c>
-      <c r="E45" s="14" t="s">
-        <v>110</v>
-      </c>
       <c r="F45" s="24" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="G45" s="31" t="s">
         <v>7</v>
@@ -2198,13 +2213,13 @@
         <v>11</v>
       </c>
       <c r="D46" s="24" t="s">
-        <v>113</v>
+        <v>112</v>
       </c>
       <c r="E46" s="14" t="s">
-        <v>111</v>
+        <v>110</v>
       </c>
       <c r="F46" s="24" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="G46" s="31" t="s">
         <v>7</v>
@@ -2221,13 +2236,13 @@
         <v>11</v>
       </c>
       <c r="D47" s="24" t="s">
-        <v>114</v>
+        <v>113</v>
       </c>
       <c r="E47" s="14" t="s">
-        <v>112</v>
+        <v>111</v>
       </c>
       <c r="F47" s="24" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="G47" s="31" t="s">
         <v>7</v>
@@ -2266,9 +2281,15 @@
       <c r="C49" s="15" t="s">
         <v>10</v>
       </c>
-      <c r="D49" s="25"/>
-      <c r="E49" s="16"/>
-      <c r="F49" s="25"/>
+      <c r="D49" s="25" t="s">
+        <v>120</v>
+      </c>
+      <c r="E49" s="16" t="s">
+        <v>121</v>
+      </c>
+      <c r="F49" s="25" t="s">
+        <v>122</v>
+      </c>
       <c r="G49" s="32"/>
     </row>
     <row r="50" spans="1:7" ht="15" thickBot="1" x14ac:dyDescent="0.35">
@@ -2276,15 +2297,23 @@
         <v>48</v>
       </c>
       <c r="B50" s="17" t="s">
-        <v>118</v>
+        <v>117</v>
       </c>
       <c r="C50" s="17" t="s">
         <v>10</v>
       </c>
-      <c r="D50" s="26"/>
-      <c r="E50" s="18"/>
-      <c r="F50" s="26"/>
-      <c r="G50" s="33"/>
+      <c r="D50" s="26" t="s">
+        <v>118</v>
+      </c>
+      <c r="E50" s="18" t="s">
+        <v>119</v>
+      </c>
+      <c r="F50" s="26" t="s">
+        <v>27</v>
+      </c>
+      <c r="G50" s="33" t="s">
+        <v>7</v>
+      </c>
     </row>
   </sheetData>
   <mergeCells count="1">
